--- a/public/大屏接口文档.xlsx
+++ b/public/大屏接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="16890" windowHeight="10215" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="正在加工产品" sheetId="1" r:id="rId1"/>
@@ -1507,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1525,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1845,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1913,7 +1916,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1931,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="409.5" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2849,7 +2852,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2915,7 +2918,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2962,7 +2965,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3037,12 +3040,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="4:4">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="1" spans="4:4">
-      <c r="D8" s="3"/>
-    </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
@@ -3106,7 +3103,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3172,7 +3169,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3320,7 +3317,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3386,7 +3383,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3464,8 +3461,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3531,7 +3528,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>74</v>
       </c>
     </row>
